--- a/TestData/Pay_Grade.xlsx
+++ b/TestData/Pay_Grade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>${Pay_Grade}</t>
   </si>
   <si>
-    <t>Grade 10</t>
+    <t>Grade 101</t>
   </si>
   <si>
     <t>${Employment_Status}</t>
   </si>
   <si>
-    <t>Part Time</t>
+    <t>Part Timessfrhd</t>
   </si>
   <si>
     <t>${Name}</t>
@@ -66,7 +66,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>Phillipines</t>
+    <t>Phillip45786</t>
   </si>
   <si>
     <t>existing</t>
@@ -94,7 +94,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,155 +571,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1079,7 +1072,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1109,7 +1102,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1145,7 +1138,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1189,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Pay_Grade.xlsx
+++ b/TestData/Pay_Grade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>${Pay_Grade}</t>
   </si>
   <si>
-    <t>Grade 101</t>
+    <t>Grade 10104</t>
   </si>
   <si>
     <t>${Employment_Status}</t>
   </si>
   <si>
-    <t>Part Timessfrhd</t>
+    <t>Part Timessfrhdshjdeffss</t>
   </si>
   <si>
     <t>${Name}</t>
@@ -66,7 +66,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>Phillip45786</t>
+    <t>Phi7417894596</t>
   </si>
   <si>
     <t>existing</t>
@@ -1041,7 +1041,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1182,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
